--- a/tests/5_predictions_PRIX_EXP_POMME_ELSTAR_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_ELSTAR_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.350000023841858</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -485,7 +493,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -494,7 +502,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -503,55 +511,47 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>1.399999976158142</v>
-      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
-        <v>1.399999976158142</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>1.399999976158142</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>1.399999976158142</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>1.399999976158142</v>
       </c>
       <c r="E8" t="n">
-        <v>1.379999995231628</v>
+        <v>1.399999976158142</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.399999976158142</v>
-      </c>
+        <v>45551</v>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>1.399999976158142</v>
       </c>
       <c r="D9" t="n">
-        <v>1.379999995231628</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="E9" t="n">
         <v>1.379999995231628</v>
@@ -559,13 +559,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
         <v>1.399999976158142</v>
       </c>
       <c r="C10" t="n">
-        <v>1.379999995231628</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="D10" t="n">
         <v>1.379999995231628</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.379999995231628</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="C11" t="n">
         <v>1.379999995231628</v>
@@ -593,7 +593,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
         <v>1.379999995231628</v>
@@ -605,12 +605,12 @@
         <v>1.379999995231628</v>
       </c>
       <c r="E12" t="n">
-        <v>1.350000023841858</v>
+        <v>1.379999995231628</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
         <v>1.379999995231628</v>
@@ -619,7 +619,7 @@
         <v>1.379999995231628</v>
       </c>
       <c r="D13" t="n">
-        <v>1.350000023841858</v>
+        <v>1.379999995231628</v>
       </c>
       <c r="E13" t="n">
         <v>1.350000023841858</v>
@@ -627,13 +627,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
         <v>1.379999995231628</v>
       </c>
       <c r="C14" t="n">
-        <v>1.350000023841858</v>
+        <v>1.379999995231628</v>
       </c>
       <c r="D14" t="n">
         <v>1.350000023841858</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.350000023841858</v>
+        <v>1.379999995231628</v>
       </c>
       <c r="C15" t="n">
         <v>1.350000023841858</v>
@@ -656,12 +656,12 @@
         <v>1.350000023841858</v>
       </c>
       <c r="E15" t="n">
-        <v>1.340000033378601</v>
+        <v>1.350000023841858</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="n">
         <v>1.350000023841858</v>
@@ -670,24 +670,24 @@
         <v>1.350000023841858</v>
       </c>
       <c r="D16" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="E16" t="n">
         <v>1.340000033378601</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.360000014305115</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="n">
         <v>1.350000023841858</v>
       </c>
       <c r="C17" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="D17" t="n">
         <v>1.340000033378601</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.360000014305115</v>
       </c>
       <c r="E17" t="n">
         <v>1.360000014305115</v>
@@ -695,50 +695,50 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="n">
+        <v>1.350000023841858</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.340000033378601</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.360000014305115</v>
       </c>
       <c r="D18" t="n">
         <v>1.360000014305115</v>
       </c>
       <c r="E18" t="n">
-        <v>1.340000033378601</v>
+        <v>1.360000014305115</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.360000014305115</v>
+        <v>1.340000033378601</v>
       </c>
       <c r="C19" t="n">
         <v>1.360000014305115</v>
       </c>
       <c r="D19" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="E19" t="n">
         <v>1.340000033378601</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.330000042915344</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="n">
         <v>1.360000014305115</v>
       </c>
       <c r="C20" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="D20" t="n">
         <v>1.340000033378601</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.330000042915344</v>
       </c>
       <c r="E20" t="n">
         <v>1.330000042915344</v>
@@ -746,13 +746,13 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
+        <v>1.360000014305115</v>
+      </c>
+      <c r="C21" t="n">
         <v>1.340000033378601</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.330000042915344</v>
       </c>
       <c r="D21" t="n">
         <v>1.330000042915344</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.330000042915344</v>
+        <v>1.340000033378601</v>
       </c>
       <c r="C22" t="n">
         <v>1.330000042915344</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
         <v>1.330000042915344</v>
@@ -791,11 +791,13 @@
       <c r="D23" t="n">
         <v>1.330000042915344</v>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>1.330000042915344</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
+        <v>45663</v>
       </c>
       <c r="B24" t="n">
         <v>1.330000042915344</v>
@@ -803,19 +805,68 @@
       <c r="C24" t="n">
         <v>1.330000042915344</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.330000042915344</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.340000033378601</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="B25" t="n">
-        <v>1.330000042915344</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.340000033378601</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.330000042915344</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.340000033378601</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.340000033378601</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -828,7 +879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,338 +911,380 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.41012704372406</v>
+        <v>1.350406765937805</v>
       </c>
       <c r="C2" t="n">
-        <v>1.401026725769043</v>
+        <v>1.379314064979553</v>
       </c>
       <c r="D2" t="n">
-        <v>1.375272035598755</v>
+        <v>1.376034736633301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.403380513191223</v>
+        <v>1.436370968818665</v>
       </c>
       <c r="C3" t="n">
-        <v>1.390244722366333</v>
+        <v>1.379072308540344</v>
       </c>
       <c r="D3" t="n">
-        <v>1.362199902534485</v>
+        <v>1.416539430618286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.379924058914185</v>
+        <v>1.436370968818665</v>
       </c>
       <c r="C4" t="n">
-        <v>1.392277121543884</v>
+        <v>1.386134266853333</v>
       </c>
       <c r="D4" t="n">
-        <v>1.362199902534485</v>
+        <v>1.417763471603394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.376180648803711</v>
+        <v>1.390308499336243</v>
       </c>
       <c r="C5" t="n">
-        <v>1.396994471549988</v>
+        <v>1.385560393333435</v>
       </c>
       <c r="D5" t="n">
-        <v>1.385136842727661</v>
+        <v>1.389714121818542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.379598736763</v>
+        <v>1.393333792686462</v>
       </c>
       <c r="C6" t="n">
-        <v>1.384182453155518</v>
+        <v>1.377134084701538</v>
       </c>
       <c r="D6" t="n">
-        <v>1.385310411453247</v>
+        <v>1.400294423103333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.398648738861084</v>
+        <v>1.379781603813171</v>
       </c>
       <c r="C7" t="n">
-        <v>1.426774501800537</v>
+        <v>1.380517959594727</v>
       </c>
       <c r="D7" t="n">
-        <v>1.417056202888489</v>
+        <v>1.383082866668701</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.396549344062805</v>
+        <v>1.379323601722717</v>
       </c>
       <c r="C8" t="n">
-        <v>1.423292398452759</v>
+        <v>1.372366309165955</v>
       </c>
       <c r="D8" t="n">
-        <v>1.413978934288025</v>
+        <v>1.395051717758179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.372374534606934</v>
+        <v>1.378673195838928</v>
       </c>
       <c r="C9" t="n">
-        <v>1.410814046859741</v>
+        <v>1.394060015678406</v>
       </c>
       <c r="D9" t="n">
-        <v>1.385616540908813</v>
+        <v>1.413283586502075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.3733069896698</v>
+        <v>1.360815286636353</v>
       </c>
       <c r="C10" t="n">
-        <v>1.387113809585571</v>
+        <v>1.406502604484558</v>
       </c>
       <c r="D10" t="n">
-        <v>1.388640761375427</v>
+        <v>1.397665977478027</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.387264728546143</v>
+        <v>1.361300110816956</v>
       </c>
       <c r="C11" t="n">
-        <v>1.391484975814819</v>
+        <v>1.370587825775146</v>
       </c>
       <c r="D11" t="n">
-        <v>1.400189399719238</v>
+        <v>1.380785465240479</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.388136982917786</v>
+        <v>1.400339245796204</v>
       </c>
       <c r="C12" t="n">
-        <v>1.388405323028564</v>
+        <v>1.403221130371094</v>
       </c>
       <c r="D12" t="n">
-        <v>1.397649168968201</v>
+        <v>1.386006593704224</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.38987672328949</v>
+        <v>1.396445512771606</v>
       </c>
       <c r="C13" t="n">
-        <v>1.386815547943115</v>
+        <v>1.396865963935852</v>
       </c>
       <c r="D13" t="n">
-        <v>1.39665412902832</v>
+        <v>1.366827964782715</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.399215936660767</v>
+        <v>1.400936484336853</v>
       </c>
       <c r="C14" t="n">
-        <v>1.394970417022705</v>
+        <v>1.400265336036682</v>
       </c>
       <c r="D14" t="n">
-        <v>1.393047213554382</v>
+        <v>1.385343551635742</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.35777747631073</v>
+        <v>1.393606781959534</v>
       </c>
       <c r="C15" t="n">
-        <v>1.402041435241699</v>
+        <v>1.385141611099243</v>
       </c>
       <c r="D15" t="n">
-        <v>1.38974142074585</v>
+        <v>1.378764390945435</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.350430369377136</v>
+        <v>1.359372854232788</v>
       </c>
       <c r="C16" t="n">
-        <v>1.39162540435791</v>
+        <v>1.399328589439392</v>
       </c>
       <c r="D16" t="n">
-        <v>1.40251624584198</v>
+        <v>1.375671148300171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.345755577087402</v>
+        <v>1.359720826148987</v>
       </c>
       <c r="C17" t="n">
-        <v>1.394295692443848</v>
+        <v>1.401019692420959</v>
       </c>
       <c r="D17" t="n">
-        <v>1.402453422546387</v>
+        <v>1.400434494018555</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.353161692619324</v>
+        <v>1.358219146728516</v>
       </c>
       <c r="C18" t="n">
-        <v>1.391461133956909</v>
+        <v>1.399346709251404</v>
       </c>
       <c r="D18" t="n">
-        <v>1.401156902313232</v>
+        <v>1.399733066558838</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.354207038879395</v>
+        <v>1.361403226852417</v>
       </c>
       <c r="C19" t="n">
-        <v>1.352329969406128</v>
+        <v>1.393660545349121</v>
       </c>
       <c r="D19" t="n">
-        <v>1.36066734790802</v>
+        <v>1.390748023986816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.357487797737122</v>
+        <v>1.351061344146729</v>
       </c>
       <c r="C20" t="n">
-        <v>1.351192235946655</v>
+        <v>1.369519233703613</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364922046661377</v>
+        <v>1.363693714141846</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.360095024108887</v>
+        <v>1.353281497955322</v>
       </c>
       <c r="C21" t="n">
-        <v>1.352385520935059</v>
+        <v>1.366328358650208</v>
       </c>
       <c r="D21" t="n">
-        <v>1.354977965354919</v>
+        <v>1.353814601898193</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.355898857116699</v>
+        <v>1.34913957118988</v>
       </c>
       <c r="C22" t="n">
-        <v>1.338959932327271</v>
+        <v>1.365161180496216</v>
       </c>
       <c r="D22" t="n">
-        <v>1.359871387481689</v>
+        <v>1.338815450668335</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.349631190299988</v>
+        <v>1.346605062484741</v>
       </c>
       <c r="C23" t="n">
-        <v>1.351746082305908</v>
+        <v>1.365923762321472</v>
       </c>
       <c r="D23" t="n">
-        <v>1.352433443069458</v>
+        <v>1.355210304260254</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
+        <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.359280228614807</v>
+        <v>1.350406765937805</v>
       </c>
       <c r="C24" t="n">
-        <v>1.351615905761719</v>
+        <v>1.377471804618835</v>
       </c>
       <c r="D24" t="n">
-        <v>1.364434719085693</v>
+        <v>1.368575811386108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.350040674209595</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.354227900505066</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.342788219451904</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="B25" t="n">
-        <v>1.356629967689514</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.352578639984131</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.354466676712036</v>
+      <c r="B26" t="n">
+        <v>1.350688219070435</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.354202747344971</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.341344356536865</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.350899696350098</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.3542240858078</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.3603835105896</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.343116164207458</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.35526978969574</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.338901042938232</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_ELSTAR_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_ELSTAR_FRANCE_170_220G_CAT_I_PLATEAU_1RG.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME ELSTAR FRANCE 170/220G CAT.I PLATEAU 1RG_S+1</t>
+          <t>PRIX EXP POMME ELSTAR FRANCE 170/220G CAT.I PLATEAU 1RG_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME ELSTAR FRANCE 170/220G CAT.I PLATEAU 1RG_S+2</t>
+          <t>PRIX EXP POMME ELSTAR FRANCE 170/220G CAT.I PLATEAU 1RG_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME ELSTAR FRANCE 170/220G CAT.I PLATEAU 1RG_S+3</t>
+          <t>PRIX EXP POMME ELSTAR FRANCE 170/220G CAT.I PLATEAU 1RG_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>1.330000042915344</v>
       </c>
       <c r="C2" t="n">
-        <v>1.350000023841858</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -487,46 +487,74 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
       <c r="E7" t="n">
-        <v>1.399999976158142</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -534,12 +562,14 @@
         <v>45544</v>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
       <c r="D8" t="n">
-        <v>1.399999976158142</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -548,13 +578,13 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1.399999976158142</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>1.379999995231628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -565,13 +595,13 @@
         <v>1.399999976158142</v>
       </c>
       <c r="C10" t="n">
-        <v>1.399999976158142</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1.379999995231628</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +612,13 @@
         <v>1.399999976158142</v>
       </c>
       <c r="C11" t="n">
-        <v>1.379999995231628</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -599,13 +629,13 @@
         <v>1.379999995231628</v>
       </c>
       <c r="C12" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -616,13 +646,13 @@
         <v>1.379999995231628</v>
       </c>
       <c r="C13" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>1.350000023841858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -633,13 +663,13 @@
         <v>1.379999995231628</v>
       </c>
       <c r="C14" t="n">
-        <v>1.379999995231628</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1.350000023841858</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -650,13 +680,13 @@
         <v>1.379999995231628</v>
       </c>
       <c r="C15" t="n">
-        <v>1.350000023841858</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -667,13 +697,13 @@
         <v>1.350000023841858</v>
       </c>
       <c r="C16" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>1.340000033378601</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -684,13 +714,13 @@
         <v>1.350000023841858</v>
       </c>
       <c r="C17" t="n">
-        <v>1.350000023841858</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1.340000033378601</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>1.360000014305115</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -701,13 +731,13 @@
         <v>1.350000023841858</v>
       </c>
       <c r="C18" t="n">
-        <v>1.340000033378601</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>1.360000014305115</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>1.360000014305115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -718,13 +748,13 @@
         <v>1.340000033378601</v>
       </c>
       <c r="C19" t="n">
-        <v>1.360000014305115</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>1.360000014305115</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>1.340000033378601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -735,13 +765,13 @@
         <v>1.360000014305115</v>
       </c>
       <c r="C20" t="n">
-        <v>1.360000014305115</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1.340000033378601</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -752,13 +782,13 @@
         <v>1.360000014305115</v>
       </c>
       <c r="C21" t="n">
-        <v>1.340000033378601</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -769,13 +799,13 @@
         <v>1.340000033378601</v>
       </c>
       <c r="C22" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -786,13 +816,13 @@
         <v>1.330000042915344</v>
       </c>
       <c r="C23" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -803,13 +833,13 @@
         <v>1.330000042915344</v>
       </c>
       <c r="C24" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -820,13 +850,13 @@
         <v>1.330000042915344</v>
       </c>
       <c r="C25" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1.340000033378601</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -837,12 +867,14 @@
         <v>1.330000042915344</v>
       </c>
       <c r="C26" t="n">
-        <v>1.330000042915344</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>1.340000033378601</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -852,10 +884,14 @@
         <v>1.330000042915344</v>
       </c>
       <c r="C27" t="n">
-        <v>1.340000033378601</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -864,9 +900,15 @@
       <c r="B28" t="n">
         <v>1.340000033378601</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -914,13 +956,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.350406765937805</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.379314064979553</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.376034736633301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -928,13 +970,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.436370968818665</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.379072308540344</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.416539430618286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -942,13 +984,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.436370968818665</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.386134266853333</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.417763471603394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -956,13 +998,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.390308499336243</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.385560393333435</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.389714121818542</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6">
@@ -970,13 +1012,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.393333792686462</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.377134084701538</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.400294423103333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -984,13 +1026,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.379781603813171</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.380517959594727</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.383082866668701</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -998,13 +1040,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.379323601722717</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="n">
-        <v>1.372366309165955</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="n">
-        <v>1.395051717758179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1012,13 +1054,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.378673195838928</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.394060015678406</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="n">
-        <v>1.413283586502075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1026,13 +1068,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.360815286636353</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.406502604484558</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.397665977478027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1040,13 +1082,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.361300110816956</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>1.370587825775146</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1.380785465240479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1096,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.400339245796204</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1.403221130371094</v>
+        <v>-1</v>
       </c>
       <c r="D12" t="n">
-        <v>1.386006593704224</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13">
@@ -1068,13 +1110,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.396445512771606</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.396865963935852</v>
+        <v>-2</v>
       </c>
       <c r="D13" t="n">
-        <v>1.366827964782715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1082,13 +1124,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.400936484336853</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>1.400265336036682</v>
+        <v>-1</v>
       </c>
       <c r="D14" t="n">
-        <v>1.385343551635742</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15">
@@ -1096,13 +1138,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.393606781959534</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.385141611099243</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.378764390945435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1110,13 +1152,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.359372854232788</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.399328589439392</v>
+        <v>-1</v>
       </c>
       <c r="D16" t="n">
-        <v>1.375671148300171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1124,13 +1166,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.359720826148987</v>
+        <v>-1</v>
       </c>
       <c r="C17" t="n">
-        <v>1.401019692420959</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.400434494018555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1138,13 +1180,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.358219146728516</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.399346709251404</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.399733066558838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1152,13 +1194,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.361403226852417</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.393660545349121</v>
+        <v>-2</v>
       </c>
       <c r="D19" t="n">
-        <v>1.390748023986816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1166,13 +1208,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.351061344146729</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.369519233703613</v>
+        <v>-2</v>
       </c>
       <c r="D20" t="n">
-        <v>1.363693714141846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1180,13 +1222,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.353281497955322</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.366328358650208</v>
+        <v>-2</v>
       </c>
       <c r="D21" t="n">
-        <v>1.353814601898193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1194,13 +1236,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.34913957118988</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.365161180496216</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.338815450668335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1208,13 +1250,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.346605062484741</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.365923762321472</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.355210304260254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1222,13 +1264,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.350406765937805</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.377471804618835</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.368575811386108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1236,13 +1278,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.350040674209595</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.354227900505066</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.342788219451904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1250,13 +1292,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>1.350688219070435</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.354202747344971</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.341344356536865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1264,13 +1306,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>1.350899696350098</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.3542240858078</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.3603835105896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1278,13 +1320,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>1.343116164207458</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.35526978969574</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.338901042938232</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
